--- a/RESULTADOS_PAPER/IEEE/RESULTADOS_IEEE.xlsx
+++ b/RESULTADOS_PAPER/IEEE/RESULTADOS_IEEE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\IEEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5478E9D6-FF1F-42D7-BF11-70B4F092613D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E2726-02AA-43C4-967F-B00E8870CB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C6A863CE-EDFC-4EB8-BA31-B406974BB876}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6A863CE-EDFC-4EB8-BA31-B406974BB876}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>GRASP</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>COSTE TOTAL</t>
-  </si>
-  <si>
-    <t>SEGUNDA PRUEBA</t>
   </si>
   <si>
     <t>PRIMERA PRUEBA</t>
@@ -131,10 +128,10 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9FA935-402D-4753-858A-01B79BB34DBA}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47:F47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,21 +458,22 @@
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
@@ -522,11 +520,11 @@
       </c>
       <c r="G3">
         <f>E34</f>
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="H3">
         <f>F34/1904</f>
-        <v>5.6297268907563023</v>
+        <v>7.4275210084033612</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -537,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C3:C10" si="0">D15</f>
+        <f t="shared" ref="C4:C10" si="0">D15</f>
         <v>217.8</v>
       </c>
       <c r="D4">
@@ -554,11 +552,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G10" si="4">E35</f>
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H10" si="5">F35/1904</f>
-        <v>5.1454831932773111</v>
+        <v>7.4275210084033612</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -586,11 +584,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>5.4411764705882355</v>
+        <v>7.4275210084033612</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -618,11 +616,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
-        <v>5.5441176470588234</v>
+        <v>7.4275210084033612</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -654,7 +652,7 @@
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>4.1596638655462188</v>
+        <v>3.8293067226890756</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -686,7 +684,7 @@
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>4.1596638655462188</v>
+        <v>3.8293067226890756</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -718,7 +716,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>3.8923319327731094</v>
+        <v>3.8293067226890756</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -750,7 +748,7 @@
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>3.5546218487394956</v>
+        <v>3.8293067226890756</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1053,7 +1051,7 @@
       <c r="F24">
         <v>134992</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f>E24+F24/1904</f>
         <v>380.89915966386553</v>
       </c>
@@ -1227,12 +1225,12 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="5"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -1246,7 +1244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>44017</v>
       </c>
@@ -1254,23 +1252,23 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>15732</v>
+        <v>11325</v>
       </c>
       <c r="D34">
-        <v>1288</v>
+        <v>1609</v>
       </c>
       <c r="E34">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F34">
-        <v>10719</v>
+        <v>14142</v>
       </c>
       <c r="J34">
         <f t="shared" si="7"/>
-        <v>245.6297268907563</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>224.42752100840337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44017</v>
       </c>
@@ -1278,23 +1276,23 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>1369</v>
+        <v>11325</v>
       </c>
       <c r="D35">
-        <v>1196</v>
+        <v>1609</v>
       </c>
       <c r="E35">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F35">
-        <v>9797</v>
+        <v>14142</v>
       </c>
       <c r="J35">
         <f t="shared" si="7"/>
-        <v>245.1454831932773</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>224.42752100840337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>44017</v>
       </c>
@@ -1302,23 +1300,23 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>1329</v>
+        <v>11325</v>
       </c>
       <c r="D36">
-        <v>1252</v>
+        <v>1609</v>
       </c>
       <c r="E36">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F36">
-        <v>10360</v>
+        <v>14142</v>
       </c>
       <c r="J36">
         <f t="shared" si="7"/>
-        <v>245.44117647058823</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>224.42752100840337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>44017</v>
       </c>
@@ -1326,23 +1324,23 @@
         <v>20</v>
       </c>
       <c r="C37">
-        <v>1286</v>
+        <v>11325</v>
       </c>
       <c r="D37">
-        <v>1272</v>
+        <v>1609</v>
       </c>
       <c r="E37">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="F37">
-        <v>10556</v>
+        <v>14142</v>
       </c>
       <c r="J37">
         <f t="shared" si="7"/>
-        <v>245.54411764705881</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>224.42752100840337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>44026</v>
       </c>
@@ -1350,23 +1348,23 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>13107</v>
+        <v>11189</v>
       </c>
       <c r="D38">
-        <v>993</v>
+        <v>930</v>
       </c>
       <c r="E38">
         <v>223</v>
       </c>
       <c r="F38">
-        <v>7920</v>
+        <v>7291</v>
       </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>227.15966386554621</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226.82930672268907</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>44026</v>
       </c>
@@ -1374,23 +1372,23 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>13265</v>
+        <v>11189</v>
       </c>
       <c r="D39">
-        <v>993</v>
+        <v>930</v>
       </c>
       <c r="E39">
         <v>223</v>
       </c>
       <c r="F39">
-        <v>7920</v>
+        <v>7291</v>
       </c>
       <c r="J39">
         <f t="shared" si="7"/>
-        <v>227.15966386554621</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226.82930672268907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>44026</v>
       </c>
@@ -1398,23 +1396,23 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>1042</v>
+        <v>11189</v>
       </c>
       <c r="D40">
-        <v>942</v>
+        <v>930</v>
       </c>
       <c r="E40">
         <v>223</v>
       </c>
       <c r="F40">
-        <v>7411</v>
+        <v>7291</v>
       </c>
       <c r="J40">
         <f t="shared" si="7"/>
-        <v>226.89233193277312</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>226.82930672268907</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>44026</v>
       </c>
@@ -1422,220 +1420,238 @@
         <v>20</v>
       </c>
       <c r="C41">
-        <v>1024</v>
+        <v>11189</v>
       </c>
       <c r="D41">
-        <v>878</v>
+        <v>930</v>
       </c>
       <c r="E41">
         <v>223</v>
       </c>
       <c r="F41">
-        <v>6768</v>
+        <v>7291</v>
       </c>
       <c r="J41">
         <f t="shared" si="7"/>
-        <v>226.55462184873949</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+        <v>226.82930672268907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="5"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="B43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
         <v>11</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>44017</v>
-      </c>
-      <c r="B44">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C44">
-        <v>15492</v>
-      </c>
-      <c r="D44">
-        <v>1288</v>
-      </c>
-      <c r="E44">
-        <v>240</v>
-      </c>
-      <c r="F44">
-        <v>10719</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="7"/>
-        <v>245.6297268907563</v>
-      </c>
-      <c r="L44">
-        <f>J34-J44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>44017</v>
-      </c>
-      <c r="B45">
+      <c r="C45">
+        <v>17963</v>
+      </c>
+      <c r="D45">
+        <v>14791</v>
+      </c>
+      <c r="E45">
+        <v>306</v>
+      </c>
+      <c r="F45">
+        <v>145159</v>
+      </c>
+      <c r="J45">
+        <f t="shared" ref="J45:J52" si="8">E45+F45/1904</f>
+        <v>382.2389705882353</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B46">
         <v>5</v>
       </c>
-      <c r="C45">
-        <v>1277</v>
-      </c>
-      <c r="D45">
-        <v>1211</v>
-      </c>
-      <c r="E45">
-        <v>240</v>
-      </c>
-      <c r="F45">
-        <v>9953</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="7"/>
-        <v>245.22741596638656</v>
-      </c>
-      <c r="L45">
-        <f t="shared" ref="L45:L51" si="8">J35-J45</f>
-        <v>-8.1932773109258505E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44017</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
       <c r="C46">
-        <v>1349</v>
+        <v>1437</v>
       </c>
       <c r="D46">
-        <v>1275</v>
+        <v>1341</v>
       </c>
       <c r="E46">
         <v>240</v>
       </c>
       <c r="F46">
-        <v>10588</v>
+        <v>11248</v>
       </c>
       <c r="J46">
-        <f t="shared" si="7"/>
-        <v>245.56092436974791</v>
-      </c>
-      <c r="L46">
         <f t="shared" si="8"/>
-        <v>-0.11974789915967676</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>245.9075630252101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>44017</v>
       </c>
       <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>5073</v>
+      </c>
+      <c r="D47">
+        <v>4913</v>
+      </c>
+      <c r="E47">
+        <v>271</v>
+      </c>
+      <c r="F47">
+        <v>46688</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>295.52100840336135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>44017</v>
+      </c>
+      <c r="B48">
         <v>20</v>
       </c>
-      <c r="C47">
-        <v>1295</v>
-      </c>
-      <c r="D47">
-        <v>1225</v>
-      </c>
-      <c r="E47">
-        <v>240</v>
-      </c>
-      <c r="F47">
-        <v>10095</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="7"/>
-        <v>245.30199579831933</v>
-      </c>
-      <c r="L47">
+      <c r="D48">
+        <v>13810</v>
+      </c>
+      <c r="E48">
+        <v>251</v>
+      </c>
+      <c r="F48">
+        <v>135844</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="8"/>
-        <v>0.24212184873948672</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B48">
+        <v>322.34663865546219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L48">
+      <c r="C49">
+        <v>14115</v>
+      </c>
+      <c r="D49">
+        <v>10803</v>
+      </c>
+      <c r="E49">
+        <v>313</v>
+      </c>
+      <c r="F49">
+        <v>105212</v>
+      </c>
+      <c r="J49">
         <f t="shared" si="8"/>
-        <v>227.15966386554621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B49">
+        <v>368.25840336134456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B50">
         <v>5</v>
       </c>
-      <c r="J49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L49">
+      <c r="C50">
+        <v>2462</v>
+      </c>
+      <c r="D50">
+        <v>1465</v>
+      </c>
+      <c r="E50">
+        <v>251</v>
+      </c>
+      <c r="F50">
+        <v>12388</v>
+      </c>
+      <c r="J50">
         <f t="shared" si="8"/>
-        <v>227.15966386554621</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B50">
+        <v>257.50630252100842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B51">
         <v>10</v>
       </c>
-      <c r="J50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L50">
+      <c r="C51">
+        <v>8080</v>
+      </c>
+      <c r="D51">
+        <v>6127</v>
+      </c>
+      <c r="E51">
+        <v>288</v>
+      </c>
+      <c r="F51">
+        <v>58675</v>
+      </c>
+      <c r="J51">
         <f t="shared" si="8"/>
-        <v>226.89233193277312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B51">
+        <v>318.81670168067228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>44026</v>
+      </c>
+      <c r="B52">
         <v>20</v>
       </c>
-      <c r="J51">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L51">
+      <c r="C52">
+        <v>2516</v>
+      </c>
+      <c r="D52">
+        <v>2359</v>
+      </c>
+      <c r="E52">
+        <v>310</v>
+      </c>
+      <c r="F52">
+        <v>20797</v>
+      </c>
+      <c r="J52">
         <f t="shared" si="8"/>
-        <v>226.55462184873949</v>
+        <v>320.92279411764707</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A43:B43"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>

--- a/RESULTADOS_PAPER/IEEE/RESULTADOS_IEEE.xlsx
+++ b/RESULTADOS_PAPER/IEEE/RESULTADOS_IEEE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chris\UPV\PHD\LOGIFRUIT\RESULTADOS_PAPER\IEEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779E2726-02AA-43C4-967F-B00E8870CB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C575F70-8173-4368-B714-7560196BF509}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C6A863CE-EDFC-4EB8-BA31-B406974BB876}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{C6A863CE-EDFC-4EB8-BA31-B406974BB876}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>GRASP</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>COSTE TOTAL</t>
-  </si>
-  <si>
-    <t>PRIMERA PRUEBA</t>
   </si>
 </sst>
 </file>
@@ -448,8 +445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9FA935-402D-4753-858A-01B79BB34DBA}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:F48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,11 +517,11 @@
       </c>
       <c r="G3">
         <f>E34</f>
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f>F34/1904</f>
-        <v>7.4275210084033612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -552,11 +549,11 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G10" si="4">E35</f>
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H10" si="5">F35/1904</f>
-        <v>7.4275210084033612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -584,11 +581,11 @@
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <f t="shared" si="5"/>
-        <v>7.4275210084033612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -616,11 +613,11 @@
       </c>
       <c r="G6">
         <f t="shared" si="4"/>
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <f t="shared" si="5"/>
-        <v>7.4275210084033612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -648,11 +645,11 @@
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="5"/>
-        <v>3.8293067226890756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -680,11 +677,11 @@
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="5"/>
-        <v>3.8293067226890756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -712,11 +709,11 @@
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="5"/>
-        <v>3.8293067226890756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -744,11 +741,11 @@
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="5"/>
-        <v>3.8293067226890756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1076,7 +1073,7 @@
         <v>62704</v>
       </c>
       <c r="J25">
-        <f t="shared" ref="J25:J51" si="7">E25+F25/1904</f>
+        <f t="shared" ref="J25:J41" si="7">E25+F25/1904</f>
         <v>337.93277310924373</v>
       </c>
     </row>
@@ -1225,9 +1222,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A32" s="6"/>
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1251,21 +1246,9 @@
       <c r="B34">
         <v>1</v>
       </c>
-      <c r="C34">
-        <v>11325</v>
-      </c>
-      <c r="D34">
-        <v>1609</v>
-      </c>
-      <c r="E34">
-        <v>217</v>
-      </c>
-      <c r="F34">
-        <v>14142</v>
-      </c>
       <c r="J34">
         <f t="shared" si="7"/>
-        <v>224.42752100840337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1275,21 +1258,9 @@
       <c r="B35">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>11325</v>
-      </c>
-      <c r="D35">
-        <v>1609</v>
-      </c>
-      <c r="E35">
-        <v>217</v>
-      </c>
-      <c r="F35">
-        <v>14142</v>
-      </c>
       <c r="J35">
         <f t="shared" si="7"/>
-        <v>224.42752100840337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1299,21 +1270,9 @@
       <c r="B36">
         <v>10</v>
       </c>
-      <c r="C36">
-        <v>11325</v>
-      </c>
-      <c r="D36">
-        <v>1609</v>
-      </c>
-      <c r="E36">
-        <v>217</v>
-      </c>
-      <c r="F36">
-        <v>14142</v>
-      </c>
       <c r="J36">
         <f t="shared" si="7"/>
-        <v>224.42752100840337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1323,21 +1282,9 @@
       <c r="B37">
         <v>20</v>
       </c>
-      <c r="C37">
-        <v>11325</v>
-      </c>
-      <c r="D37">
-        <v>1609</v>
-      </c>
-      <c r="E37">
-        <v>217</v>
-      </c>
-      <c r="F37">
-        <v>14142</v>
-      </c>
       <c r="J37">
         <f t="shared" si="7"/>
-        <v>224.42752100840337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1347,21 +1294,9 @@
       <c r="B38">
         <v>1</v>
       </c>
-      <c r="C38">
-        <v>11189</v>
-      </c>
-      <c r="D38">
-        <v>930</v>
-      </c>
-      <c r="E38">
-        <v>223</v>
-      </c>
-      <c r="F38">
-        <v>7291</v>
-      </c>
       <c r="J38">
         <f t="shared" si="7"/>
-        <v>226.82930672268907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1371,21 +1306,9 @@
       <c r="B39">
         <v>5</v>
       </c>
-      <c r="C39">
-        <v>11189</v>
-      </c>
-      <c r="D39">
-        <v>930</v>
-      </c>
-      <c r="E39">
-        <v>223</v>
-      </c>
-      <c r="F39">
-        <v>7291</v>
-      </c>
       <c r="J39">
         <f t="shared" si="7"/>
-        <v>226.82930672268907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1395,21 +1318,9 @@
       <c r="B40">
         <v>10</v>
       </c>
-      <c r="C40">
-        <v>11189</v>
-      </c>
-      <c r="D40">
-        <v>930</v>
-      </c>
-      <c r="E40">
-        <v>223</v>
-      </c>
-      <c r="F40">
-        <v>7291</v>
-      </c>
       <c r="J40">
         <f t="shared" si="7"/>
-        <v>226.82930672268907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1419,21 +1330,9 @@
       <c r="B41">
         <v>20</v>
       </c>
-      <c r="C41">
-        <v>11189</v>
-      </c>
-      <c r="D41">
-        <v>930</v>
-      </c>
-      <c r="E41">
-        <v>223</v>
-      </c>
-      <c r="F41">
-        <v>7291</v>
-      </c>
       <c r="J41">
         <f t="shared" si="7"/>
-        <v>226.82930672268907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1441,213 +1340,32 @@
       <c r="B42" s="6"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A43" s="6"/>
       <c r="B43" s="6"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44017</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>17963</v>
-      </c>
-      <c r="D45">
-        <v>14791</v>
-      </c>
-      <c r="E45">
-        <v>306</v>
-      </c>
-      <c r="F45">
-        <v>145159</v>
-      </c>
-      <c r="J45">
-        <f t="shared" ref="J45:J52" si="8">E45+F45/1904</f>
-        <v>382.2389705882353</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>44017</v>
-      </c>
-      <c r="B46">
-        <v>5</v>
-      </c>
-      <c r="C46">
-        <v>1437</v>
-      </c>
-      <c r="D46">
-        <v>1341</v>
-      </c>
-      <c r="E46">
-        <v>240</v>
-      </c>
-      <c r="F46">
-        <v>11248</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="8"/>
-        <v>245.9075630252101</v>
-      </c>
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>44017</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>5073</v>
-      </c>
-      <c r="D47">
-        <v>4913</v>
-      </c>
-      <c r="E47">
-        <v>271</v>
-      </c>
-      <c r="F47">
-        <v>46688</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="8"/>
-        <v>295.52100840336135</v>
-      </c>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>44017</v>
-      </c>
-      <c r="B48">
-        <v>20</v>
-      </c>
-      <c r="D48">
-        <v>13810</v>
-      </c>
-      <c r="E48">
-        <v>251</v>
-      </c>
-      <c r="F48">
-        <v>135844</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="8"/>
-        <v>322.34663865546219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>14115</v>
-      </c>
-      <c r="D49">
-        <v>10803</v>
-      </c>
-      <c r="E49">
-        <v>313</v>
-      </c>
-      <c r="F49">
-        <v>105212</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="8"/>
-        <v>368.25840336134456</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B50">
-        <v>5</v>
-      </c>
-      <c r="C50">
-        <v>2462</v>
-      </c>
-      <c r="D50">
-        <v>1465</v>
-      </c>
-      <c r="E50">
-        <v>251</v>
-      </c>
-      <c r="F50">
-        <v>12388</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="8"/>
-        <v>257.50630252100842</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B51">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>8080</v>
-      </c>
-      <c r="D51">
-        <v>6127</v>
-      </c>
-      <c r="E51">
-        <v>288</v>
-      </c>
-      <c r="F51">
-        <v>58675</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="8"/>
-        <v>318.81670168067228</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <v>44026</v>
-      </c>
-      <c r="B52">
-        <v>20</v>
-      </c>
-      <c r="C52">
-        <v>2516</v>
-      </c>
-      <c r="D52">
-        <v>2359</v>
-      </c>
-      <c r="E52">
-        <v>310</v>
-      </c>
-      <c r="F52">
-        <v>20797</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="8"/>
-        <v>320.92279411764707</v>
-      </c>
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="6">
